--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D687F5-129B-4F2D-84ED-A69B3782D8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D6A53-3CD6-41C8-8CD5-17D8956A8B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="BPMCCS" sheetId="2" r:id="rId3"/>
+    <sheet name="Nuclear" sheetId="3" r:id="rId2"/>
+    <sheet name="Wind" sheetId="4" r:id="rId3"/>
+    <sheet name="Solar" sheetId="5" r:id="rId4"/>
+    <sheet name="BPMCCS" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Note:</t>
   </si>
@@ -176,6 +178,45 @@
   </si>
   <si>
     <t>Plans For New Reactors Worldwide</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Offshore</t>
+  </si>
+  <si>
+    <t>Total Onshore</t>
+  </si>
+  <si>
+    <t>Wind Europe</t>
+  </si>
+  <si>
+    <t>Wind energy in Europe</t>
+  </si>
+  <si>
+    <t>Figure A</t>
+  </si>
+  <si>
+    <t>Capacity Addition</t>
+  </si>
+  <si>
+    <t>https://proceedings.windeurope.org/biplatform/rails/active_storage/disk/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdDRG9JYTJWNVNTSWhNamhwZEd4ck5uTXpjMnczTW1sMmJHNWthSE0yTTNRd1ltWXpiZ1k2QmtWVU9oQmthWE53YjNOcGRHbHZia2tpQVk1cGJteHBibVU3SUdacGJHVnVZVzFsUFNKWGFXNWtSWFZ5YjNCbExWZHBibVF0Wlc1bGNtZDVMV2x1TFVWMWNtOXdaUzF6ZEdGMGFYTjBhV056TFRJd01qQXVjR1JtSWpzZ1ptbHNaVzVoYldVcVBWVlVSaTA0SnlkWGFXNWtSWFZ5YjNCbExWZHBibVF0Wlc1bGNtZDVMV2x1TFVWMWNtOXdaUzF6ZEdGMGFYTjBhV056TFRJd01qQXVjR1JtQmpzR1ZEb1JZMjl1ZEdWdWRGOTBlWEJsU1NJVVlYQndiR2xqWVhScGIyNHZjR1JtQmpzR1ZBPT0iLCJleHAiOiIyMDIxLTA5LTAxVDIyOjQ2OjAxLjcxMVoiLCJwdXIiOiJibG9iX2tleSJ9fQ==--8471a3a5562d7a916c885b3fb44c66b36966b139/WindEurope-Wind-energy-in-Europe-statistics-2020.pdf?content_type=application%2Fpdf&amp;disposition=inline%3B+filename%3D%22WindEurope-Wind-energy-in-Europe-statistics-2020.pdf%22%3B+filename%2A%3DUTF-8%27%27WindEurope-Wind-energy-in-Europe-statistics-2020.pdf</t>
+  </si>
+  <si>
+    <t>PVTech</t>
+  </si>
+  <si>
+    <t>https://www.pv-tech.org/resilient-european-solar-market-posts-double-digit-growth-in-2020/#:~:text=Despite%20the%20setbacks%20of%20COVID,in%20the%20continent%20since%202011.</t>
+  </si>
+  <si>
+    <t>Resilient' European solar market posts double-digit growth in 2020</t>
   </si>
 </sst>
 </file>
@@ -236,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -286,9 +328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>91487</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>350520</xdr:rowOff>
+      <xdr:colOff>85137</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -313,6 +355,104 @@
         <a:xfrm>
           <a:off x="7749540" y="213361"/>
           <a:ext cx="4412027" cy="1897379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2377</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12504EDE-F679-4A14-B942-FF39AFBA3E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="171450"/>
+          <a:ext cx="6380952" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1233D49B-878B-4080-ABE1-204ACF5BC0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="161925"/>
+          <a:ext cx="5612699" cy="1580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,23 +785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+    <col min="2" max="2" width="67.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,79 +809,139 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="9">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -757,31 +957,31 @@
   <dimension ref="A2:AG62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.46484375" customWidth="1"/>
-    <col min="8" max="8" width="8.53125" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" customWidth="1"/>
-    <col min="10" max="10" width="32.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.46484375" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -799,9 +999,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>27</v>
@@ -821,9 +1021,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -843,7 +1043,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2023</v>
       </c>
@@ -865,9 +1065,9 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -887,9 +1087,9 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>33</v>
@@ -908,9 +1108,9 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>41</v>
@@ -932,35 +1132,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2018</v>
       </c>
@@ -1061,38 +1261,37 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>0</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
-        <f>F5+F10</f>
-        <v>2081.4499999999998</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f>F6</f>
-        <v>447.45</v>
+        <f>E5</f>
+        <v>471</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <f>E10</f>
+        <v>1720</v>
       </c>
       <c r="F16">
-        <f>F7</f>
-        <v>1662.5</v>
+        <f>F6+F7</f>
+        <v>2109.9499999999998</v>
       </c>
       <c r="G16">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>F9</f>
-        <v>1634</v>
+        <f>E8</f>
+        <v>1720</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <f>E9</f>
+        <v>1720</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1164,322 +1363,322 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1497,6 +1696,206 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E026A5C1-A507-41BC-96F8-0D98E825E8FF}">
+  <dimension ref="A30:P35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>1493</v>
+      </c>
+      <c r="C30">
+        <v>219</v>
+      </c>
+      <c r="I30">
+        <v>706</v>
+      </c>
+      <c r="L30">
+        <v>483</v>
+      </c>
+      <c r="P30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>486</v>
+      </c>
+      <c r="C31">
+        <v>1431</v>
+      </c>
+      <c r="D31">
+        <v>1532</v>
+      </c>
+      <c r="E31">
+        <v>1400</v>
+      </c>
+      <c r="F31">
+        <v>1318</v>
+      </c>
+      <c r="G31">
+        <v>1224</v>
+      </c>
+      <c r="H31">
+        <v>1007</v>
+      </c>
+      <c r="I31">
+        <v>152</v>
+      </c>
+      <c r="J31">
+        <v>731</v>
+      </c>
+      <c r="K31">
+        <v>713</v>
+      </c>
+      <c r="L31">
+        <v>115</v>
+      </c>
+      <c r="M31">
+        <v>517</v>
+      </c>
+      <c r="N31">
+        <v>302</v>
+      </c>
+      <c r="O31">
+        <v>196</v>
+      </c>
+      <c r="P31">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B30:B31)</f>
+        <v>1979</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:P32" si="0">SUM(C30:C31)</f>
+        <v>1650</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1532</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1318</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>598</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B30:P30)</f>
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B31:P31)</f>
+        <v>11812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C29821-63E6-4862-9221-175C5F743F03}">
+  <dimension ref="A12:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <f>18.7*1000</f>
+        <v>18700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -1504,15 +1903,15 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +2015,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1824,144 +2223,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <f>Data!A16</f>
+        <f>Nuclear!A16</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>Data!B16</f>
+        <f>Nuclear!B16</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!C16</f>
-        <v>2081.4499999999998</v>
+        <f>Nuclear!C16</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>Data!D16</f>
-        <v>447.45</v>
+        <f>Nuclear!D16</f>
+        <v>471</v>
       </c>
       <c r="F4">
-        <f>Data!E16</f>
-        <v>0</v>
+        <f>Nuclear!E16</f>
+        <v>1720</v>
       </c>
       <c r="G4">
-        <f>Data!F16</f>
-        <v>1662.5</v>
+        <f>Nuclear!F16</f>
+        <v>2109.9499999999998</v>
       </c>
       <c r="H4">
-        <f>Data!G16</f>
+        <f>Nuclear!G16</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>Data!H16</f>
+        <f>Nuclear!H16</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>Data!I16</f>
-        <v>1634</v>
+        <f>Nuclear!I16</f>
+        <v>1720</v>
       </c>
       <c r="K4">
-        <f>Data!J16</f>
-        <v>0</v>
+        <f>Nuclear!J16</f>
+        <v>1720</v>
       </c>
       <c r="L4">
-        <f>Data!K16</f>
+        <f>Nuclear!K16</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>Data!L16</f>
+        <f>Nuclear!L16</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>Data!M16</f>
+        <f>Nuclear!M16</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>Data!N16</f>
+        <f>Nuclear!N16</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>Data!O16</f>
+        <f>Nuclear!O16</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>Data!P16</f>
+        <f>Nuclear!P16</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>Data!Q16</f>
+        <f>Nuclear!Q16</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>Data!R16</f>
+        <f>Nuclear!R16</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>Data!S16</f>
+        <f>Nuclear!S16</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>Data!T16</f>
+        <f>Nuclear!T16</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>Data!U16</f>
+        <f>Nuclear!U16</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>Data!V16</f>
+        <f>Nuclear!V16</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>Data!W16</f>
+        <f>Nuclear!W16</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>Data!X16</f>
+        <f>Nuclear!X16</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>Data!Y16</f>
+        <f>Nuclear!Y16</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>Data!Z16</f>
+        <f>Nuclear!Z16</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>Data!AA16</f>
+        <f>Nuclear!AA16</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>Data!AB16</f>
+        <f>Nuclear!AB16</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>Data!AC16</f>
+        <f>Nuclear!AC16</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>Data!AD16</f>
+        <f>Nuclear!AD16</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>Data!AE16</f>
+        <f>Nuclear!AE16</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>Data!AF16</f>
+        <f>Nuclear!AF16</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>Data!AG16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+        <f>Nuclear!AG16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2076,7 +2475,8 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>Wind!B35</f>
+        <v>11812</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2169,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2580,8 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>Solar!B12</f>
+        <v>18700</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2273,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2377,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2689,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2908,7 +3309,8 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f>Wind!B34</f>
+        <v>2918</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3001,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3105,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3209,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/elec/BPMCCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{08399FE5-EEA2-4885-8B61-A3CC418B5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A17FDBE-D121-41D7-909C-31FD9EB8D7F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A6C75-0423-4829-A471-63B4062F5C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="5" activeTab="5" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="14925" yWindow="1965" windowWidth="26730" windowHeight="20460" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>BPMCCS BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>New capacities from renewable hypothesis</t>
+  </si>
+  <si>
+    <t>Offshore wind capacity</t>
+  </si>
+  <si>
+    <t>European Wind Charter</t>
   </si>
 </sst>
 </file>
@@ -6193,9 +6199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6233,7 +6239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6339,7 +6345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6481,7 +6487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6497,28 +6503,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E0EDE-E56C-4DF9-9C8D-7B6714D2C68A}">
-  <dimension ref="B11:D34"/>
+  <dimension ref="B11:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="48"/>
-    <col min="3" max="3" width="46.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="48"/>
+    <col min="1" max="2" width="10.85546875" style="48"/>
+    <col min="3" max="3" width="46.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>4</v>
@@ -6538,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -6547,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -6556,7 +6562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
@@ -6580,87 +6586,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="132" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="50"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="132" t="s">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="132" t="s">
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="50"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="132" t="s">
+      <c r="C25" s="50"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="132" t="s">
+      <c r="C26" s="50"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="50"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="132" t="s">
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="50"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="132" t="s">
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="50"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C29" s="50"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="132" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="132"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="132"/>
-      <c r="C31" s="156" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="132"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
       <c r="C32" s="156" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
       <c r="C33" s="156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="132"/>
+      <c r="C34" s="156" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6670,9 +6684,10 @@
     <hyperlink ref="D17" r:id="rId4" display="Source : Solar Power europe : Global Market Outlook 2023-2027, figure 21.1" xr:uid="{4B11940A-1E55-4EA3-9DA3-5A2F42982C55}"/>
     <hyperlink ref="D18" r:id="rId5" xr:uid="{A68EAC02-65D2-4554-BF6B-F8B12B95B66B}"/>
     <hyperlink ref="D19" r:id="rId6" xr:uid="{70CBC071-7CB3-48F0-85E2-A0659BE4114C}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{A2447522-67C0-44A2-9351-880A3FA2E89E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6687,12 +6702,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -6731,7 +6746,7 @@
       </c>
       <c r="M1" s="57"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>28</v>
       </c>
@@ -6769,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>29</v>
       </c>
@@ -6807,7 +6822,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
@@ -6845,7 +6860,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>31</v>
       </c>
@@ -6889,7 +6904,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>32</v>
       </c>
@@ -6927,7 +6942,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>34</v>
       </c>
@@ -6971,7 +6986,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>35</v>
       </c>
@@ -7012,7 +7027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>37</v>
       </c>
@@ -7050,7 +7065,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>38</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>39</v>
       </c>
@@ -7129,7 +7144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>40</v>
       </c>
@@ -7167,7 +7182,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>41</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>42</v>
       </c>
@@ -7246,7 +7261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>43</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>44</v>
       </c>
@@ -7323,7 +7338,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>45</v>
       </c>
@@ -7362,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>46</v>
       </c>
@@ -7401,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>47</v>
       </c>
@@ -7446,7 +7461,7 @@
       </c>
       <c r="M19" s="82"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>48</v>
       </c>
@@ -7484,7 +7499,7 @@
         <v>66193</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
         <v>49</v>
       </c>
@@ -7522,7 +7537,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
         <v>50</v>
       </c>
@@ -7548,7 +7563,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>51</v>
       </c>
@@ -7574,7 +7589,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="s">
         <v>52</v>
       </c>
@@ -7618,7 +7633,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
         <v>53</v>
       </c>
@@ -7656,13 +7671,13 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -7670,56 +7685,56 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="89" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="91" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="s">
         <v>64</v>
       </c>
@@ -7727,7 +7742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="100" t="s">
         <v>66</v>
       </c>
@@ -7735,7 +7750,7 @@
         <v>0.88562074635559918</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="100" t="s">
         <v>67</v>
       </c>
@@ -7743,7 +7758,7 @@
         <v>4.1196292554878007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="102" t="s">
         <v>68</v>
       </c>
@@ -7751,21 +7766,21 @@
         <v>7.3182961089522852E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="97" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="96"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
@@ -7776,7 +7791,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -7787,7 +7802,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -7819,14 +7834,14 @@
       <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="33" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>74</v>
       </c>
@@ -7927,7 +7942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
         <v>75</v>
       </c>
@@ -8028,7 +8043,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>76</v>
       </c>
@@ -8129,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>50</v>
       </c>
@@ -8218,7 +8233,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>51</v>
       </c>
@@ -8307,7 +8322,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>77</v>
       </c>
@@ -8408,7 +8423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>78</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>79</v>
       </c>
@@ -8610,7 +8625,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>80</v>
       </c>
@@ -8711,7 +8726,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>49</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>81</v>
       </c>
@@ -8913,7 +8928,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>82</v>
       </c>
@@ -9014,7 +9029,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>83</v>
       </c>
@@ -9115,7 +9130,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>84</v>
       </c>
@@ -9216,7 +9231,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>85</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>86</v>
       </c>
@@ -9382,7 +9397,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>87</v>
       </c>
@@ -9483,7 +9498,7 @@
         <v>50234</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9599,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>89</v>
       </c>
@@ -9685,7 +9700,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>90</v>
       </c>
@@ -9786,7 +9801,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
         <v>66</v>
       </c>
@@ -9887,7 +9902,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
         <v>67</v>
       </c>
@@ -9988,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="125" t="s">
         <v>68</v>
       </c>
@@ -10089,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="125" t="s">
         <v>91</v>
       </c>
@@ -10190,7 +10205,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>92</v>
       </c>
@@ -10291,55 +10306,55 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>95</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -10360,15 +10375,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -10466,7 +10481,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -10595,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -10724,7 +10739,7 @@
         <v>-3658.0599999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -10853,7 +10868,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -10982,7 +10997,7 @@
         <v>9539.5999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
@@ -11111,7 +11126,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -11240,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -11369,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -11498,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -11627,7 +11642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -11756,7 +11771,7 @@
         <v>1518.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -11885,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -12014,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -12143,7 +12158,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -12272,7 +12287,7 @@
         <v>3338.2000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -12401,7 +12416,7 @@
         <v>180.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -12530,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -12659,7 +12674,7 @@
         <v>2977.5999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
@@ -12788,17 +12803,17 @@
         <v>6521.4000000000015</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>105</v>
       </c>
@@ -12825,22 +12840,22 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" customWidth="1"/>
-    <col min="19" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>106</v>
       </c>
@@ -12858,7 +12873,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -12869,7 +12884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -12892,7 +12907,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2012</v>
       </c>
@@ -12945,7 +12960,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -12997,7 +13012,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -13055,7 +13070,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -13113,7 +13128,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -13137,7 +13152,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -13152,7 +13167,7 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -13175,7 +13190,7 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P11" s="3" t="s">
         <v>117</v>
       </c>
@@ -13186,10 +13201,10 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V12" s="31"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -13200,7 +13215,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>118</v>
       </c>
@@ -13240,7 +13255,7 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -13294,7 +13309,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -13346,7 +13361,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -13398,7 +13413,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J18" s="36" t="s">
         <v>119</v>
       </c>
@@ -13410,13 +13425,13 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="P19" s="3"/>
       <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>120</v>
       </c>
@@ -13428,7 +13443,7 @@
       <c r="P20" s="3"/>
       <c r="X20" s="27"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>121</v>
       </c>
@@ -13439,7 +13454,7 @@
       <c r="F21" s="26"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>122</v>
       </c>
@@ -13451,7 +13466,7 @@
       <c r="P22" s="3"/>
       <c r="S22" s="154"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -13459,7 +13474,7 @@
       <c r="F23" s="26"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -13467,19 +13482,19 @@
       <c r="F24" s="26"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P27" s="40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>124</v>
       </c>
@@ -13517,7 +13532,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>125</v>
       </c>
@@ -13561,7 +13576,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" s="23" t="s">
         <v>90</v>
       </c>
@@ -13596,7 +13611,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P31" s="23" t="s">
         <v>114</v>
       </c>
@@ -13639,7 +13654,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P32" s="23" t="s">
         <v>116</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P33" s="28" t="s">
         <v>117</v>
       </c>
@@ -13721,7 +13736,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N34" s="13" t="s">
         <v>126</v>
       </c>
@@ -13753,7 +13768,7 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="137" t="s">
         <v>127</v>
       </c>
@@ -13807,7 +13822,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="138"/>
       <c r="B36" s="139"/>
       <c r="C36" s="138"/>
@@ -13847,7 +13862,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="140" t="s">
         <v>13</v>
       </c>
@@ -13876,7 +13891,7 @@
       <c r="AA37" s="82"/>
       <c r="AB37" s="82"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="141" t="s">
         <v>111</v>
       </c>
@@ -13919,7 +13934,7 @@
       <c r="AA38" s="82"/>
       <c r="AB38" s="82"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="145" t="s">
         <v>89</v>
       </c>
@@ -13954,7 +13969,7 @@
       <c r="AA39" s="82"/>
       <c r="AB39" s="82"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>90</v>
       </c>
@@ -13989,7 +14004,7 @@
       <c r="AA40" s="82"/>
       <c r="AB40" s="82"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
         <v>114</v>
       </c>
@@ -14034,7 +14049,7 @@
       <c r="AA41" s="82"/>
       <c r="AB41" s="82"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="145" t="s">
         <v>116</v>
       </c>
@@ -14079,7 +14094,7 @@
       <c r="AA42" s="82"/>
       <c r="AB42" s="82"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="147" t="s">
         <v>117</v>
       </c>
@@ -14124,7 +14139,7 @@
       <c r="AA43" s="82"/>
       <c r="AB43" s="82"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="138"/>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
@@ -14151,7 +14166,7 @@
       <c r="AA44" s="82"/>
       <c r="AB44" s="82"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="151" t="s">
         <v>129</v>
       </c>
@@ -14178,7 +14193,7 @@
       <c r="AA45" s="82"/>
       <c r="AB45" s="82"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="141" t="s">
         <v>111</v>
       </c>
@@ -14221,7 +14236,7 @@
       <c r="AA46" s="82"/>
       <c r="AB46" s="82"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="145" t="s">
         <v>89</v>
       </c>
@@ -14254,7 +14269,7 @@
       <c r="AA47" s="82"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="145" t="s">
         <v>90</v>
       </c>
@@ -14287,7 +14302,7 @@
       <c r="AA48" s="82"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="145" t="s">
         <v>114</v>
       </c>
@@ -14330,7 +14345,7 @@
       <c r="AA49" s="82"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="145" t="s">
         <v>116</v>
       </c>
@@ -14373,7 +14388,7 @@
       <c r="AA50" s="82"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="147" t="s">
         <v>117</v>
       </c>
@@ -14416,7 +14431,7 @@
       <c r="AA51" s="82"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O52" s="82"/>
       <c r="P52" s="136"/>
       <c r="Q52" s="136"/>
@@ -14432,7 +14447,7 @@
       <c r="AA52" s="82"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P53" s="51"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
@@ -14443,7 +14458,7 @@
       <c r="W53" s="52"/>
       <c r="X53" s="52"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P54" s="51"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
@@ -14454,7 +14469,7 @@
       <c r="W54" s="52"/>
       <c r="X54" s="52"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P55" s="51"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -14465,7 +14480,7 @@
       <c r="W55" s="52"/>
       <c r="X55" s="52"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P56" s="51"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
@@ -14476,7 +14491,7 @@
       <c r="W56" s="52"/>
       <c r="X56" s="52"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P57" s="51"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
@@ -14487,7 +14502,7 @@
       <c r="W57" s="52"/>
       <c r="X57" s="52"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P58" s="51"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
@@ -14498,7 +14513,7 @@
       <c r="W58" s="52"/>
       <c r="X58" s="52"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P59" s="51"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -14509,7 +14524,7 @@
       <c r="W59" s="52"/>
       <c r="X59" s="52"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P60" s="51"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
@@ -14536,16 +14551,16 @@
   </sheetPr>
   <dimension ref="A3:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -14676,7 +14691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -14805,7 +14820,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -14906,7 +14921,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -15039,7 +15054,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -15168,7 +15183,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -15297,7 +15312,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -15430,7 +15445,7 @@
         <v>291363.21999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -15563,23 +15578,23 @@
         <v>419278.77999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="96"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
@@ -15611,7 +15626,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -15646,7 +15661,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -15681,12 +15696,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>95</v>
       </c>
@@ -15707,16 +15722,16 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -15814,7 +15829,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -15912,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -16010,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>135</v>
       </c>
@@ -16108,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -16206,7 +16221,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -16333,7 +16348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -16353,116 +16368,89 @@
         <f>'RE projections'!F8-'RE projections'!E8</f>
         <v>7464</v>
       </c>
-      <c r="F7" s="7">
-        <f>'RE projections'!G8-'RE projections'!F8</f>
-        <v>7464</v>
-      </c>
-      <c r="G7" s="7">
-        <f>'RE projections'!H8-'RE projections'!G8</f>
-        <v>7464</v>
-      </c>
-      <c r="H7" s="7">
-        <f>'RE projections'!I8-'RE projections'!H8</f>
-        <v>7464</v>
-      </c>
-      <c r="I7" s="7">
-        <f>'RE projections'!J8-'RE projections'!I8</f>
-        <v>7464</v>
-      </c>
-      <c r="J7" s="7">
-        <f>'RE projections'!K8-'RE projections'!J8</f>
-        <v>7464</v>
-      </c>
-      <c r="K7" s="7">
-        <f>'RE projections'!L8-'RE projections'!K8</f>
-        <v>7464</v>
-      </c>
-      <c r="L7" s="7">
-        <f>'RE projections'!M8-'RE projections'!L8</f>
-        <v>7464</v>
-      </c>
-      <c r="M7" s="7">
-        <f>'RE projections'!N8-'RE projections'!M8</f>
-        <v>7464</v>
-      </c>
-      <c r="N7" s="7">
-        <f>'RE projections'!O8-'RE projections'!N8</f>
-        <v>7464</v>
-      </c>
-      <c r="O7" s="7">
-        <f>'RE projections'!P8-'RE projections'!O8</f>
-        <v>7464</v>
-      </c>
-      <c r="P7" s="7">
-        <f>'RE projections'!Q8-'RE projections'!P8</f>
-        <v>7464</v>
-      </c>
-      <c r="Q7" s="7">
-        <f>'RE projections'!R8-'RE projections'!Q8</f>
-        <v>7464</v>
-      </c>
-      <c r="R7" s="7">
-        <f>'RE projections'!S8-'RE projections'!R8</f>
-        <v>7464</v>
-      </c>
-      <c r="S7" s="7">
-        <f>'RE projections'!T8-'RE projections'!S8</f>
-        <v>7464</v>
-      </c>
-      <c r="T7" s="7">
-        <f>'RE projections'!U8-'RE projections'!T8</f>
-        <v>7464</v>
-      </c>
-      <c r="U7" s="7">
-        <f>'RE projections'!V8-'RE projections'!U8</f>
-        <v>7464</v>
-      </c>
-      <c r="V7" s="7">
-        <f>'RE projections'!W8-'RE projections'!V8</f>
-        <v>7464</v>
-      </c>
-      <c r="W7" s="7">
-        <f>'RE projections'!X8-'RE projections'!W8</f>
-        <v>7464</v>
-      </c>
-      <c r="X7" s="7">
-        <f>'RE projections'!Y8-'RE projections'!X8</f>
-        <v>7464</v>
-      </c>
-      <c r="Y7" s="7">
-        <f>'RE projections'!Z8-'RE projections'!Y8</f>
-        <v>7464</v>
-      </c>
-      <c r="Z7" s="7">
-        <f>'RE projections'!AA8-'RE projections'!Z8</f>
-        <v>7464</v>
-      </c>
-      <c r="AA7" s="7">
-        <f>'RE projections'!AB8-'RE projections'!AA8</f>
-        <v>7464</v>
-      </c>
-      <c r="AB7" s="7">
-        <f>'RE projections'!AC8-'RE projections'!AB8</f>
-        <v>7464</v>
-      </c>
-      <c r="AC7" s="7">
-        <f>'RE projections'!AD8-'RE projections'!AC8</f>
-        <v>7464</v>
-      </c>
-      <c r="AD7" s="7">
-        <f>'RE projections'!AE8-'RE projections'!AD8</f>
-        <v>7464</v>
-      </c>
-      <c r="AE7" s="7">
-        <f>'RE projections'!AF8-'RE projections'!AE8</f>
-        <v>7464</v>
-      </c>
-      <c r="AF7" s="7">
-        <f>'RE projections'!AG8-'RE projections'!AF8</f>
-        <v>7464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -16482,116 +16470,89 @@
         <f>'RE projections'!F9-'RE projections'!E9</f>
         <v>10011.882499999992</v>
       </c>
-      <c r="F8" s="7">
-        <f>'RE projections'!G9-'RE projections'!F9</f>
-        <v>10652.277499999997</v>
-      </c>
-      <c r="G8" s="7">
-        <f>'RE projections'!H9-'RE projections'!G9</f>
-        <v>11292.672499999986</v>
-      </c>
-      <c r="H8" s="7">
-        <f>'RE projections'!I9-'RE projections'!H9</f>
-        <v>11933.067500000005</v>
-      </c>
-      <c r="I8" s="7">
-        <f>'RE projections'!J9-'RE projections'!I9</f>
-        <v>7501.7700000000041</v>
-      </c>
-      <c r="J8" s="7">
-        <f>'RE projections'!K9-'RE projections'!J9</f>
-        <v>7501.7700000000041</v>
-      </c>
-      <c r="K8" s="7">
-        <f>'RE projections'!L9-'RE projections'!K9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="L8" s="7">
-        <f>'RE projections'!M9-'RE projections'!L9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="M8" s="7">
-        <f>'RE projections'!N9-'RE projections'!M9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="N8" s="7">
-        <f>'RE projections'!O9-'RE projections'!N9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="O8" s="7">
-        <f>'RE projections'!P9-'RE projections'!O9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="P8" s="7">
-        <f>'RE projections'!Q9-'RE projections'!P9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="Q8" s="7">
-        <f>'RE projections'!R9-'RE projections'!Q9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="R8" s="7">
-        <f>'RE projections'!S9-'RE projections'!R9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="S8" s="7">
-        <f>'RE projections'!T9-'RE projections'!S9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="T8" s="7">
-        <f>'RE projections'!U9-'RE projections'!T9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="U8" s="7">
-        <f>'RE projections'!V9-'RE projections'!U9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="V8" s="7">
-        <f>'RE projections'!W9-'RE projections'!V9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="W8" s="7">
-        <f>'RE projections'!X9-'RE projections'!W9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="X8" s="7">
-        <f>'RE projections'!Y9-'RE projections'!X9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>'RE projections'!Z9-'RE projections'!Y9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>'RE projections'!AA9-'RE projections'!Z9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="AA8" s="7">
-        <f>'RE projections'!AB9-'RE projections'!AA9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="AB8" s="7">
-        <f>'RE projections'!AC9-'RE projections'!AB9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="AC8" s="7">
-        <f>'RE projections'!AD9-'RE projections'!AC9</f>
-        <v>7501.7699999999895</v>
-      </c>
-      <c r="AD8" s="7">
-        <f>'RE projections'!AE9-'RE projections'!AD9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="AE8" s="7">
-        <f>'RE projections'!AF9-'RE projections'!AE9</f>
-        <v>7501.7700000000186</v>
-      </c>
-      <c r="AF8" s="7">
-        <f>'RE projections'!AG9-'RE projections'!AF9</f>
-        <v>7501.7699999999604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -16717,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -16815,7 +16776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -16913,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>136</v>
       </c>
@@ -17011,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -17109,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -17207,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -17228,115 +17189,88 @@
         <v>2457</v>
       </c>
       <c r="F15" s="7">
-        <f>'RE projections'!G7-'RE projections'!F7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="G15" s="7">
-        <f>'RE projections'!H7-'RE projections'!G7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="H15" s="7">
-        <f>'RE projections'!I7-'RE projections'!H7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="I15" s="7">
-        <f>'RE projections'!J7-'RE projections'!I7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="J15" s="7">
-        <f>'RE projections'!K7-'RE projections'!J7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="K15" s="7">
-        <f>'RE projections'!L7-'RE projections'!K7</f>
-        <v>2457</v>
+        <v>7500</v>
       </c>
       <c r="L15" s="7">
-        <f>'RE projections'!M7-'RE projections'!L7</f>
-        <v>2457</v>
-      </c>
-      <c r="M15" s="7">
-        <f>'RE projections'!N7-'RE projections'!M7</f>
-        <v>2457</v>
-      </c>
-      <c r="N15" s="7">
-        <f>'RE projections'!O7-'RE projections'!N7</f>
-        <v>2457</v>
-      </c>
-      <c r="O15" s="7">
-        <f>'RE projections'!P7-'RE projections'!O7</f>
-        <v>2457</v>
-      </c>
-      <c r="P15" s="7">
-        <f>'RE projections'!Q7-'RE projections'!P7</f>
-        <v>2457</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>'RE projections'!R7-'RE projections'!Q7</f>
-        <v>2457</v>
-      </c>
-      <c r="R15" s="7">
-        <f>'RE projections'!S7-'RE projections'!R7</f>
-        <v>2457</v>
-      </c>
-      <c r="S15" s="7">
-        <f>'RE projections'!T7-'RE projections'!S7</f>
-        <v>2457</v>
-      </c>
-      <c r="T15" s="7">
-        <f>'RE projections'!U7-'RE projections'!T7</f>
-        <v>2457</v>
-      </c>
-      <c r="U15" s="7">
-        <f>'RE projections'!V7-'RE projections'!U7</f>
-        <v>2457</v>
-      </c>
-      <c r="V15" s="7">
-        <f>'RE projections'!W7-'RE projections'!V7</f>
-        <v>2457</v>
-      </c>
-      <c r="W15" s="7">
-        <f>'RE projections'!X7-'RE projections'!W7</f>
-        <v>2457</v>
-      </c>
-      <c r="X15" s="7">
-        <f>'RE projections'!Y7-'RE projections'!X7</f>
-        <v>2457</v>
-      </c>
-      <c r="Y15" s="7">
-        <f>'RE projections'!Z7-'RE projections'!Y7</f>
-        <v>2457</v>
-      </c>
-      <c r="Z15" s="7">
-        <f>'RE projections'!AA7-'RE projections'!Z7</f>
-        <v>2457</v>
-      </c>
-      <c r="AA15" s="7">
-        <f>'RE projections'!AB7-'RE projections'!AA7</f>
-        <v>2457</v>
-      </c>
-      <c r="AB15" s="7">
-        <f>'RE projections'!AC7-'RE projections'!AB7</f>
-        <v>2457</v>
-      </c>
-      <c r="AC15" s="7">
-        <f>'RE projections'!AD7-'RE projections'!AC7</f>
-        <v>2457</v>
-      </c>
-      <c r="AD15" s="7">
-        <f>'RE projections'!AE7-'RE projections'!AD7</f>
-        <v>2457</v>
-      </c>
-      <c r="AE15" s="7">
-        <f>'RE projections'!AF7-'RE projections'!AE7</f>
-        <v>2457</v>
-      </c>
-      <c r="AF15" s="7">
-        <f>'RE projections'!AG7-'RE projections'!AF7</f>
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+        <v>7500</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -17434,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
@@ -17532,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -17633,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>138</v>
       </c>
@@ -17731,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>139</v>
       </c>
@@ -17829,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>140</v>
       </c>
@@ -17927,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>141</v>
       </c>
@@ -18025,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
@@ -18123,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="155" t="s">
         <v>143</v>
       </c>
@@ -18221,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>144</v>
       </c>
@@ -18319,20 +18253,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>146</v>
       </c>
@@ -18343,26 +18277,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -18585,26 +18499,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18621,4 +18536,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A6C75-0423-4829-A471-63B4062F5C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393CE51-4E7B-431A-8EE1-3FE0470D64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="1965" windowWidth="26730" windowHeight="20460" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="32280" yWindow="2280" windowWidth="22425" windowHeight="12360" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>REF2020</t>
-  </si>
-  <si>
-    <t>Fir for 55</t>
   </si>
   <si>
     <t>Notes :</t>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>European Wind Charter</t>
+  </si>
+  <si>
+    <t>Fit for 55</t>
   </si>
 </sst>
 </file>
@@ -6505,26 +6505,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E0EDE-E56C-4DF9-9C8D-7B6714D2C68A}">
   <dimension ref="B11:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="48"/>
-    <col min="3" max="3" width="46.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="48"/>
+    <col min="1" max="2" width="10.81640625" style="48"/>
+    <col min="3" max="3" width="46.54296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>4</v>
@@ -6544,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -6553,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -6562,7 +6562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
@@ -6578,101 +6578,101 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="153" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="132" t="s">
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="50"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="132" t="s">
+      <c r="C25" s="50"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="132" t="s">
+      <c r="C26" s="50"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="50"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="132" t="s">
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="50"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="132" t="s">
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="50"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="132" t="s">
+      <c r="C29" s="50"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="50"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="50"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="132" t="s">
-        <v>23</v>
-      </c>
       <c r="C31" s="132"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="132"/>
       <c r="C32" s="156" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="132"/>
       <c r="C33" s="156" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="132"/>
       <c r="C34" s="156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
     </row>
@@ -6683,7 +6683,7 @@
     <hyperlink ref="D15" r:id="rId3" display="ENTSOE Statistical Factsheets 2018, 2021 and 2022" xr:uid="{5499FA0E-D990-4886-8EF2-A50B75C5F91E}"/>
     <hyperlink ref="D17" r:id="rId4" display="Source : Solar Power europe : Global Market Outlook 2023-2027, figure 21.1" xr:uid="{4B11940A-1E55-4EA3-9DA3-5A2F42982C55}"/>
     <hyperlink ref="D18" r:id="rId5" xr:uid="{A68EAC02-65D2-4554-BF6B-F8B12B95B66B}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{70CBC071-7CB3-48F0-85E2-A0659BE4114C}"/>
+    <hyperlink ref="D19" r:id="rId6" display="Fir for 55" xr:uid="{70CBC071-7CB3-48F0-85E2-A0659BE4114C}"/>
     <hyperlink ref="D20" r:id="rId7" xr:uid="{A2447522-67C0-44A2-9351-880A3FA2E89E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6702,14 +6702,14 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="54">
         <v>2018</v>
@@ -6746,9 +6746,9 @@
       </c>
       <c r="M1" s="57"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="59">
         <v>79188</v>
@@ -6784,9 +6784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="59">
         <v>109392</v>
@@ -6822,9 +6822,9 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="63">
         <v>0</v>
@@ -6860,9 +6860,9 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="59">
         <v>112150</v>
@@ -6904,12 +6904,12 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="66">
         <v>155126</v>
@@ -6942,12 +6942,12 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="66">
         <v>118323</v>
@@ -6986,12 +6986,12 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="66">
         <v>2321</v>
@@ -7024,12 +7024,12 @@
         <v>2304</v>
       </c>
       <c r="M8" s="53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>37</v>
       </c>
       <c r="B9" s="59">
         <v>21882</v>
@@ -7065,9 +7065,9 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="59">
         <v>1005</v>
@@ -7103,12 +7103,12 @@
         <v>941</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="59">
         <v>51842</v>
@@ -7144,12 +7144,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="66">
         <v>12085</v>
@@ -7182,9 +7182,9 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="70">
         <v>29208</v>
@@ -7220,9 +7220,9 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="70">
         <v>2809</v>
@@ -7258,12 +7258,12 @@
         <v>5254</v>
       </c>
       <c r="M14" s="53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="70">
         <v>3248</v>
@@ -7299,9 +7299,9 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="70">
         <v>164325.1582447887</v>
@@ -7338,9 +7338,9 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="70">
         <v>7643.8896909725045</v>
@@ -7377,9 +7377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="70">
         <v>13578.952064238787</v>
@@ -7416,9 +7416,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="79">
         <v>185548</v>
@@ -7461,12 +7461,12 @@
       </c>
       <c r="M19" s="82"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="66">
         <v>120644</v>
@@ -7499,9 +7499,9 @@
         <v>66193</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="84">
         <v>45224</v>
@@ -7537,9 +7537,9 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
@@ -7563,9 +7563,9 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -7589,12 +7589,12 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="94">
         <v>40229.82</v>
@@ -7633,12 +7633,12 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="94">
         <v>78093.180000000008</v>
@@ -7671,118 +7671,118 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="88" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="90" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="98" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="s">
+      <c r="B39" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="99" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="100" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
-        <v>66</v>
       </c>
       <c r="B40" s="101">
         <v>0.88562074635559918</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="101">
         <v>4.1196292554878007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="103">
         <v>7.3182961089522852E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="96"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="96"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -7791,9 +7791,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="32">
         <v>0.34</v>
@@ -7802,9 +7802,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="32">
         <v>0.66</v>
@@ -7834,16 +7834,16 @@
       <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="105">
         <v>2019</v>
@@ -7942,9 +7942,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="112">
         <v>21603</v>
@@ -8043,9 +8043,9 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="117">
         <v>77754</v>
@@ -8144,9 +8144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="121"/>
@@ -8233,9 +8233,9 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
@@ -8322,9 +8322,9 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="117">
         <v>50298</v>
@@ -8423,9 +8423,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="117">
         <v>107809</v>
@@ -8524,9 +8524,9 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="123">
         <v>25123.333333333332</v>
@@ -8625,9 +8625,9 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="117">
         <v>2788.3333333333335</v>
@@ -8726,9 +8726,9 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="117">
         <v>44043.666666666664</v>
@@ -8827,9 +8827,9 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="117">
         <v>12085</v>
@@ -8928,9 +8928,9 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="117">
         <v>155126</v>
@@ -9029,9 +9029,9 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="123">
         <v>25123.333333333332</v>
@@ -9130,9 +9130,9 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="123">
         <v>111042.66666666667</v>
@@ -9231,9 +9231,9 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="123">
         <v>984.66666666666663</v>
@@ -9332,9 +9332,9 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="121"/>
       <c r="C16" s="121"/>
@@ -9397,9 +9397,9 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="123">
         <v>107809</v>
@@ -9498,9 +9498,9 @@
         <v>50234</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="123">
         <v>3321.3333333333335</v>
@@ -9599,9 +9599,9 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="123">
         <v>118323</v>
@@ -9700,9 +9700,9 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="123">
         <v>2304</v>
@@ -9801,9 +9801,9 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="123">
         <v>162793.32956050898</v>
@@ -9902,9 +9902,9 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="123">
         <v>7572.6338369500836</v>
@@ -10003,9 +10003,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="117">
         <v>13452.369935874276</v>
@@ -10104,9 +10104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="128">
         <v>40229.82</v>
@@ -10205,9 +10205,9 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="128">
         <v>78093.180000000008</v>
@@ -10306,55 +10306,55 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -10375,17 +10375,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3">
         <v>2020</v>
@@ -10481,9 +10481,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11">
         <f>'Residual old capacities'!B3-'Residual old capacities'!C3</f>
@@ -10610,9 +10610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="12">
         <f>'Residual old capacities'!B17-'Residual old capacities'!C17</f>
@@ -10739,9 +10739,9 @@
         <v>-3658.0599999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>'Residual old capacities'!B14-'Residual old capacities'!C14</f>
@@ -10868,9 +10868,9 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11">
         <f>'Residual old capacities'!B12-'Residual old capacities'!C12</f>
@@ -10997,9 +10997,9 @@
         <v>9539.5999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="11">
         <f>'Residual old capacities'!B19-'Residual old capacities'!C19</f>
@@ -11126,9 +11126,9 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12">
         <f>'Residual old capacities'!B20-'Residual old capacities'!C20</f>
@@ -11255,9 +11255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11">
         <f>'Residual old capacities'!B2-'Residual old capacities'!C2</f>
@@ -11384,9 +11384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="12">
         <f>'Residual old capacities'!B15-'Residual old capacities'!C15</f>
@@ -11513,9 +11513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="12">
         <f>'Residual old capacities'!B6-'Residual old capacities'!C6</f>
@@ -11642,9 +11642,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11">
         <f>'Residual old capacities'!B11-'Residual old capacities'!C11</f>
@@ -11771,9 +11771,9 @@
         <v>1518.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11">
         <f>'Residual old capacities'!B13-'Residual old capacities'!C13</f>
@@ -11900,9 +11900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12">
         <f>'Residual old capacities'!B18-'Residual old capacities'!C18</f>
@@ -12029,9 +12029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11">
         <f>'Residual old capacities'!B9-'Residual old capacities'!C9</f>
@@ -12158,9 +12158,9 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="12">
         <f>'Residual old capacities'!B21-'Residual old capacities'!C21</f>
@@ -12287,9 +12287,9 @@
         <v>3338.2000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="12">
         <f>'Residual old capacities'!B22-'Residual old capacities'!C22</f>
@@ -12416,9 +12416,9 @@
         <v>180.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="12">
         <f>'Residual old capacities'!B23-'Residual old capacities'!C23</f>
@@ -12545,9 +12545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <f>'Residual old capacities'!B24-'Residual old capacities'!C24</f>
@@ -12674,9 +12674,9 @@
         <v>2977.5999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <f>'Residual old capacities'!B25-'Residual old capacities'!C25</f>
@@ -12803,19 +12803,19 @@
         <v>6521.4000000000015</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -12840,24 +12840,24 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="19" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -12873,23 +12873,23 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="P3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="Q3" s="21">
         <v>2021</v>
@@ -12907,7 +12907,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2012</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>2022</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>111912</v>
@@ -12960,9 +12960,9 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="25">
         <v>69453</v>
@@ -13000,7 +13000,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="P5" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>2304</v>
@@ -13012,9 +13012,9 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="25">
         <v>2015</v>
@@ -13052,7 +13052,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="P6" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>114216</v>
@@ -13070,9 +13070,9 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="25">
         <v>95172</v>
@@ -13110,7 +13110,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="P7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>14223</v>
@@ -13128,13 +13128,13 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="P8" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="29">
         <v>159448</v>
@@ -13152,13 +13152,13 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="P9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
@@ -13167,7 +13167,7 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -13181,7 +13181,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="P10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
@@ -13190,9 +13190,9 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="P11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
@@ -13201,10 +13201,10 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="V12" s="31"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -13215,9 +13215,9 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3">
         <v>2012</v>
@@ -13255,9 +13255,9 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="33">
         <f t="shared" ref="C15:L17" si="0">C5-B5</f>
@@ -13309,9 +13309,9 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="33">
         <f t="shared" si="0"/>
@@ -13361,9 +13361,9 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="33">
         <f t="shared" si="0"/>
@@ -13413,9 +13413,9 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="J18" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="3"/>
       <c r="S18" s="11"/>
@@ -13425,15 +13425,15 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="P19" s="3"/>
       <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -13443,9 +13443,9 @@
       <c r="P20" s="3"/>
       <c r="X20" s="27"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -13454,9 +13454,9 @@
       <c r="F21" s="26"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -13466,7 +13466,7 @@
       <c r="P22" s="3"/>
       <c r="S22" s="154"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -13474,7 +13474,7 @@
       <c r="F23" s="26"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -13482,24 +13482,24 @@
       <c r="F24" s="26"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P27" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="P28" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="21">
         <v>2021</v>
@@ -13532,12 +13532,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q29">
         <v>111912</v>
@@ -13576,9 +13576,9 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P30" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q30">
         <v>2304</v>
@@ -13611,9 +13611,9 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P31" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q31">
         <v>114216</v>
@@ -13654,9 +13654,9 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P32" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q32">
         <v>14223</v>
@@ -13695,9 +13695,9 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P33" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q33" s="29">
         <v>159448</v>
@@ -13736,12 +13736,12 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N34" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U34" s="12">
         <f>J15*3</f>
@@ -13768,34 +13768,34 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="137"/>
       <c r="C35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U35" s="12">
         <f>J16*3</f>
@@ -13822,7 +13822,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="138"/>
       <c r="B36" s="139"/>
       <c r="C36" s="138"/>
@@ -13835,7 +13835,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U36" s="27">
         <f>J17*3</f>
@@ -13862,7 +13862,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="140" t="s">
         <v>13</v>
       </c>
@@ -13891,9 +13891,9 @@
       <c r="AA37" s="82"/>
       <c r="AB37" s="82"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="142">
         <v>2021</v>
@@ -13934,9 +13934,9 @@
       <c r="AA38" s="82"/>
       <c r="AB38" s="82"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="145" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="138">
         <v>160963</v>
@@ -13950,7 +13950,7 @@
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
       <c r="I39" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -13969,9 +13969,9 @@
       <c r="AA39" s="82"/>
       <c r="AB39" s="82"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="138">
         <v>2321</v>
@@ -13985,7 +13985,7 @@
       <c r="G40" s="138"/>
       <c r="H40" s="138"/>
       <c r="I40" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -14004,9 +14004,9 @@
       <c r="AA40" s="82"/>
       <c r="AB40" s="82"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="138">
         <v>160382</v>
@@ -14049,9 +14049,9 @@
       <c r="AA41" s="82"/>
       <c r="AB41" s="82"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="138">
         <v>15137</v>
@@ -14094,9 +14094,9 @@
       <c r="AA42" s="82"/>
       <c r="AB42" s="82"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="148">
         <v>173233</v>
@@ -14139,7 +14139,7 @@
       <c r="AA43" s="82"/>
       <c r="AB43" s="82"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="138"/>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
@@ -14166,9 +14166,9 @@
       <c r="AA44" s="82"/>
       <c r="AB44" s="82"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="139"/>
       <c r="C45" s="138"/>
@@ -14193,9 +14193,9 @@
       <c r="AA45" s="82"/>
       <c r="AB45" s="82"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="142">
         <v>2021</v>
@@ -14236,9 +14236,9 @@
       <c r="AA46" s="82"/>
       <c r="AB46" s="82"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="145" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="138">
         <v>160963</v>
@@ -14252,7 +14252,7 @@
       <c r="G47" s="138"/>
       <c r="H47" s="138"/>
       <c r="I47" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O47" s="82"/>
       <c r="P47" s="14"/>
@@ -14269,9 +14269,9 @@
       <c r="AA47" s="82"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="138">
         <v>2321</v>
@@ -14285,7 +14285,7 @@
       <c r="G48" s="138"/>
       <c r="H48" s="138"/>
       <c r="I48" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O48" s="82"/>
       <c r="P48" s="14"/>
@@ -14302,9 +14302,9 @@
       <c r="AA48" s="82"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="138">
         <v>160382</v>
@@ -14319,16 +14319,16 @@
         <v>383045</v>
       </c>
       <c r="F49" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H49" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I49" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O49" s="82"/>
       <c r="P49" s="14"/>
@@ -14345,9 +14345,9 @@
       <c r="AA49" s="82"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="138">
         <v>15137</v>
@@ -14362,16 +14362,16 @@
         <v>66358</v>
       </c>
       <c r="F50" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I50" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O50" s="82"/>
       <c r="P50" s="82"/>
@@ -14388,9 +14388,9 @@
       <c r="AA50" s="82"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="148">
         <v>173233</v>
@@ -14405,16 +14405,16 @@
         <v>360988</v>
       </c>
       <c r="F51" s="148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" s="152" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O51" s="82"/>
       <c r="P51" s="82"/>
@@ -14431,7 +14431,7 @@
       <c r="AA51" s="82"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O52" s="82"/>
       <c r="P52" s="136"/>
       <c r="Q52" s="136"/>
@@ -14447,7 +14447,7 @@
       <c r="AA52" s="82"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P53" s="51"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
@@ -14458,7 +14458,7 @@
       <c r="W53" s="52"/>
       <c r="X53" s="52"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P54" s="51"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
@@ -14469,7 +14469,7 @@
       <c r="W54" s="52"/>
       <c r="X54" s="52"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P55" s="51"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -14480,7 +14480,7 @@
       <c r="W55" s="52"/>
       <c r="X55" s="52"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P56" s="51"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
@@ -14491,7 +14491,7 @@
       <c r="W56" s="52"/>
       <c r="X56" s="52"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P57" s="51"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
@@ -14502,7 +14502,7 @@
       <c r="W57" s="52"/>
       <c r="X57" s="52"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P58" s="51"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
@@ -14513,7 +14513,7 @@
       <c r="W58" s="52"/>
       <c r="X58" s="52"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P59" s="51"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -14524,7 +14524,7 @@
       <c r="W59" s="52"/>
       <c r="X59" s="52"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P60" s="51"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
@@ -14555,14 +14555,14 @@
       <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -14691,9 +14691,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>118323</v>
@@ -14820,9 +14820,9 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>2321</v>
@@ -14921,9 +14921,9 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <f>B4+B5</f>
@@ -15054,9 +15054,9 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>12085</v>
@@ -15183,9 +15183,9 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>155126</v>
@@ -15312,9 +15312,9 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <f>B20*B$4</f>
@@ -15445,9 +15445,9 @@
         <v>291363.21999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <f>B21*B$4</f>
@@ -15578,25 +15578,25 @@
         <v>419278.77999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="96"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="B19" s="96">
         <v>2022</v>
@@ -15626,9 +15626,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="32">
         <v>0.34</v>
@@ -15661,9 +15661,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="32">
         <v>0.66</v>
@@ -15696,14 +15696,14 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -15722,18 +15722,18 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -15829,9 +15829,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -15927,9 +15927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -16025,9 +16025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -16123,9 +16123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -16221,9 +16221,9 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -16348,9 +16348,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="15">
         <f>-'Retirements from BCRbQ'!B6</f>
@@ -16450,9 +16450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5">
         <f>-'Retirements from BCRbQ'!B19</f>
@@ -16552,9 +16552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16678,499 +16678,499 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="B15" s="15">
         <f>-'Retirements from BCRbQ'!B12</f>
@@ -17189,25 +17189,32 @@
         <v>2457</v>
       </c>
       <c r="F15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!G7-'RE projections'!F7</f>
+        <v>2457</v>
       </c>
       <c r="G15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!H7-'RE projections'!G7</f>
+        <v>2457</v>
       </c>
       <c r="H15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!I7-'RE projections'!H7</f>
+        <v>2457</v>
       </c>
       <c r="I15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!J7-'RE projections'!I7</f>
+        <v>2457</v>
       </c>
       <c r="J15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!K7-'RE projections'!J7</f>
+        <v>2457</v>
       </c>
       <c r="K15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!L7-'RE projections'!K7</f>
+        <v>2457</v>
       </c>
       <c r="L15" s="7">
-        <v>7500</v>
+        <f>'RE projections'!M7-'RE projections'!L7</f>
+        <v>2457</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -17270,205 +17277,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B18" s="131">
         <f>-'Retirements from BCRbQ'!B14</f>
@@ -17567,708 +17574,708 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="155" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -18277,6 +18284,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -18499,27 +18526,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18536,23 +18562,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Models\European Union\Models\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393CE51-4E7B-431A-8EE1-3FE0470D64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15A3B5-27FC-4A1D-95FB-2A5C380FA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="2280" windowWidth="22425" windowHeight="12360" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -6505,26 +6505,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E0EDE-E56C-4DF9-9C8D-7B6714D2C68A}">
   <dimension ref="B11:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="48"/>
-    <col min="3" max="3" width="46.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="48"/>
+    <col min="1" max="2" width="10.85546875" style="48"/>
+    <col min="3" max="3" width="46.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>4</v>
@@ -6544,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -6553,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -6562,7 +6562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>146</v>
       </c>
@@ -6594,85 +6594,85 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="132" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="50"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="132" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="50"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="132" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="50"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="132" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="50"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="132" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="50"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="132" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="50"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="132" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="50"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" s="50"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="132" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="132"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
       <c r="C32" s="156" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
       <c r="C33" s="156" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="132"/>
       <c r="C34" s="156" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
     </row>
@@ -6702,12 +6702,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="M1" s="57"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>27</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>28</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>33</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>34</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>36</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>38</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>39</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>40</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>41</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>42</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>43</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>44</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>45</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>46</v>
       </c>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="M19" s="82"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>47</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>66193</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
         <v>48</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
         <v>49</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>50</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="s">
         <v>51</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
         <v>52</v>
       </c>
@@ -7671,13 +7671,13 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -7685,56 +7685,56 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="s">
         <v>63</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="100" t="s">
         <v>65</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0.88562074635559918</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="100" t="s">
         <v>66</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>4.1196292554878007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="102" t="s">
         <v>67</v>
       </c>
@@ -7766,21 +7766,21 @@
         <v>7.3182961089522852E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="96"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -7834,14 +7834,14 @@
       <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="33" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>73</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
         <v>74</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>75</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>49</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>50</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>76</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>77</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>78</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>79</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>48</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>80</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>81</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>82</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>83</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>84</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>85</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>86</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>50234</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>87</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>88</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>89</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
         <v>65</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
         <v>66</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="125" t="s">
         <v>67</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="125" t="s">
         <v>90</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>91</v>
       </c>
@@ -10306,55 +10306,55 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -10375,15 +10375,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>-3658.0599999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>9539.5999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>1518.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>3338.2000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>99</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>180.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>2977.5999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -12803,17 +12803,17 @@
         <v>6521.4000000000015</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
@@ -12840,22 +12840,22 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" customWidth="1"/>
-    <col min="19" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>105</v>
       </c>
@@ -12873,7 +12873,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>109</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2012</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -13070,7 +13070,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -13128,7 +13128,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -13152,7 +13152,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -13167,7 +13167,7 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -13190,7 +13190,7 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P11" s="3" t="s">
         <v>116</v>
       </c>
@@ -13201,10 +13201,10 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V12" s="31"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -13215,7 +13215,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -13309,7 +13309,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -13413,7 +13413,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J18" s="36" t="s">
         <v>118</v>
       </c>
@@ -13425,13 +13425,13 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="P19" s="3"/>
       <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>119</v>
       </c>
@@ -13443,7 +13443,7 @@
       <c r="P20" s="3"/>
       <c r="X20" s="27"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>120</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="F21" s="26"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>121</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="P22" s="3"/>
       <c r="S22" s="154"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -13474,7 +13474,7 @@
       <c r="F23" s="26"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -13482,19 +13482,19 @@
       <c r="F24" s="26"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P27" s="40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>123</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>124</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" s="23" t="s">
         <v>89</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P31" s="23" t="s">
         <v>113</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P32" s="23" t="s">
         <v>115</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P33" s="28" t="s">
         <v>116</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N34" s="13" t="s">
         <v>125</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="137" t="s">
         <v>126</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="138"/>
       <c r="B36" s="139"/>
       <c r="C36" s="138"/>
@@ -13862,7 +13862,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="140" t="s">
         <v>13</v>
       </c>
@@ -13891,7 +13891,7 @@
       <c r="AA37" s="82"/>
       <c r="AB37" s="82"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="141" t="s">
         <v>110</v>
       </c>
@@ -13934,7 +13934,7 @@
       <c r="AA38" s="82"/>
       <c r="AB38" s="82"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="145" t="s">
         <v>88</v>
       </c>
@@ -13969,7 +13969,7 @@
       <c r="AA39" s="82"/>
       <c r="AB39" s="82"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>89</v>
       </c>
@@ -14004,7 +14004,7 @@
       <c r="AA40" s="82"/>
       <c r="AB40" s="82"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
         <v>113</v>
       </c>
@@ -14049,7 +14049,7 @@
       <c r="AA41" s="82"/>
       <c r="AB41" s="82"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="145" t="s">
         <v>115</v>
       </c>
@@ -14094,7 +14094,7 @@
       <c r="AA42" s="82"/>
       <c r="AB42" s="82"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="147" t="s">
         <v>116</v>
       </c>
@@ -14139,7 +14139,7 @@
       <c r="AA43" s="82"/>
       <c r="AB43" s="82"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="138"/>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
@@ -14166,7 +14166,7 @@
       <c r="AA44" s="82"/>
       <c r="AB44" s="82"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="151" t="s">
         <v>128</v>
       </c>
@@ -14193,7 +14193,7 @@
       <c r="AA45" s="82"/>
       <c r="AB45" s="82"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="141" t="s">
         <v>110</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="AA46" s="82"/>
       <c r="AB46" s="82"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="145" t="s">
         <v>88</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="AA47" s="82"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="145" t="s">
         <v>89</v>
       </c>
@@ -14302,7 +14302,7 @@
       <c r="AA48" s="82"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="145" t="s">
         <v>113</v>
       </c>
@@ -14345,7 +14345,7 @@
       <c r="AA49" s="82"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="145" t="s">
         <v>115</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="AA50" s="82"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="147" t="s">
         <v>116</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="AA51" s="82"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O52" s="82"/>
       <c r="P52" s="136"/>
       <c r="Q52" s="136"/>
@@ -14447,7 +14447,7 @@
       <c r="AA52" s="82"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P53" s="51"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
@@ -14458,7 +14458,7 @@
       <c r="W53" s="52"/>
       <c r="X53" s="52"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P54" s="51"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
@@ -14469,7 +14469,7 @@
       <c r="W54" s="52"/>
       <c r="X54" s="52"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P55" s="51"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -14480,7 +14480,7 @@
       <c r="W55" s="52"/>
       <c r="X55" s="52"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P56" s="51"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
@@ -14491,7 +14491,7 @@
       <c r="W56" s="52"/>
       <c r="X56" s="52"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P57" s="51"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
@@ -14502,7 +14502,7 @@
       <c r="W57" s="52"/>
       <c r="X57" s="52"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P58" s="51"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
@@ -14513,7 +14513,7 @@
       <c r="W58" s="52"/>
       <c r="X58" s="52"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P59" s="51"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -14524,7 +14524,7 @@
       <c r="W59" s="52"/>
       <c r="X59" s="52"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P60" s="51"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
@@ -14555,12 +14555,12 @@
       <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>291363.21999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -15578,23 +15578,23 @@
         <v>419278.77999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="96"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -15696,12 +15696,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>94</v>
       </c>
@@ -15722,16 +15722,16 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -16364,9 +16364,8 @@
         <f>-'Retirements from BCRbQ'!D6</f>
         <v>14122</v>
       </c>
-      <c r="E7" s="7">
-        <f>'RE projections'!F8-'RE projections'!E8</f>
-        <v>7464</v>
+      <c r="E7" s="17">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -16450,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
@@ -16466,9 +16465,8 @@
         <f>-'Retirements from BCRbQ'!D19</f>
         <v>12230.48000000001</v>
       </c>
-      <c r="E8" s="7">
-        <f>'RE projections'!F9-'RE projections'!E9</f>
-        <v>10011.882499999992</v>
+      <c r="E8" s="17">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -16552,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -16678,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -16776,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -16874,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -16972,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -17070,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -17277,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -17375,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -17473,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -17574,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>137</v>
       </c>
@@ -17672,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
@@ -17770,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>139</v>
       </c>
@@ -17868,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -17966,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
@@ -18064,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="155" t="s">
         <v>142</v>
       </c>
@@ -18162,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>143</v>
       </c>
@@ -18260,20 +18258,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>145</v>
       </c>
@@ -18284,26 +18282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -18526,26 +18504,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18562,4 +18541,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Models\European Union\Models\eps-eu\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15A3B5-27FC-4A1D-95FB-2A5C380FA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB44D52-9EE6-4485-9CE8-8D215B5B1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="58170" yWindow="570" windowWidth="22230" windowHeight="16665" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="150">
   <si>
     <t>BPMCCS BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>Fit for 55</t>
+  </si>
+  <si>
+    <t>Data from Solar Power Europe 2022, 2023 Market Reports</t>
   </si>
 </sst>
 </file>
@@ -6505,26 +6508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E0EDE-E56C-4DF9-9C8D-7B6714D2C68A}">
   <dimension ref="B11:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="48"/>
-    <col min="3" max="3" width="46.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="48"/>
+    <col min="1" max="2" width="10.81640625" style="48"/>
+    <col min="3" max="3" width="46.54296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>4</v>
@@ -6544,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -6553,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -6562,7 +6565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>146</v>
       </c>
@@ -6594,85 +6597,85 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="132" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="50"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="132" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="50"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="132" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="50"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="132" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="50"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="132" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="50"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="132" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="50"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="132" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="50"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C30" s="50"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="132" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="132"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="132"/>
       <c r="C32" s="156" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="132"/>
       <c r="C33" s="156" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="132"/>
       <c r="C34" s="156" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
     </row>
@@ -6702,12 +6705,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
@@ -6746,7 +6749,7 @@
       </c>
       <c r="M1" s="57"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>27</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>28</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
         <v>33</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
         <v>34</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
         <v>36</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
         <v>38</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
         <v>39</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="69" t="s">
         <v>40</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="74" t="s">
         <v>41</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="74" t="s">
         <v>42</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="74" t="s">
         <v>43</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="74" t="s">
         <v>44</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="74" t="s">
         <v>45</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>46</v>
       </c>
@@ -7461,7 +7464,7 @@
       </c>
       <c r="M19" s="82"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="74" t="s">
         <v>47</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>66193</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="83" t="s">
         <v>48</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="83" t="s">
         <v>49</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="83" t="s">
         <v>50</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="93" t="s">
         <v>51</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="93" t="s">
         <v>52</v>
       </c>
@@ -7671,13 +7674,13 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -7685,56 +7688,56 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="87" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="88" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="90" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="98" t="s">
         <v>63</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="100" t="s">
         <v>65</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>0.88562074635559918</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="100" t="s">
         <v>66</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>4.1196292554878007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="102" t="s">
         <v>67</v>
       </c>
@@ -7766,21 +7769,21 @@
         <v>7.3182961089522852E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="96"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -7830,18 +7833,18 @@
   </sheetPr>
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
         <v>73</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
         <v>74</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>12760.4457</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="116" t="s">
         <v>75</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
         <v>49</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>16853.470267169079</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
         <v>50</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>124716.4767</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
         <v>76</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="116" t="s">
         <v>77</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="116" t="s">
         <v>78</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="116" t="s">
         <v>79</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>11612.976000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="116" t="s">
         <v>48</v>
       </c>
@@ -8827,7 +8830,7 @@
         <v>64719.832999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="116" t="s">
         <v>80</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="116" t="s">
         <v>81</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>15844</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="116" t="s">
         <v>82</v>
       </c>
@@ -9130,7 +9133,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="116" t="s">
         <v>83</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>141569.94696716909</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="116" t="s">
         <v>84</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="116" t="s">
         <v>85</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="116" t="s">
         <v>86</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>50234</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="116" t="s">
         <v>87</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="116" t="s">
         <v>88</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>63889</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="116" t="s">
         <v>89</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="116" t="s">
         <v>65</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="116" t="s">
         <v>66</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="125" t="s">
         <v>67</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="125" t="s">
         <v>90</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="125" t="s">
         <v>91</v>
       </c>
@@ -10306,55 +10309,55 @@
         <v>40808</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="87" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -10372,18 +10375,18 @@
   <dimension ref="A2:AF25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>-3658.0599999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>9539.5999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -11642,7 +11645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>1518.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>3338.2000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>99</v>
       </c>
@@ -12416,7 +12419,7 @@
         <v>180.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -12545,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>2977.5999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -12803,17 +12806,17 @@
         <v>6521.4000000000015</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
@@ -12840,22 +12843,22 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="19" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>105</v>
       </c>
@@ -12873,7 +12876,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>109</v>
       </c>
@@ -12907,7 +12910,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2012</v>
       </c>
@@ -12960,7 +12963,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -13070,7 +13073,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -13128,7 +13131,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -13152,7 +13155,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -13167,7 +13170,7 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -13190,7 +13193,7 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="P11" s="3" t="s">
         <v>116</v>
       </c>
@@ -13201,10 +13204,10 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="V12" s="31"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -13215,7 +13218,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
@@ -13255,7 +13258,7 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -13309,7 +13312,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -13361,7 +13364,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -13413,7 +13416,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="J18" s="36" t="s">
         <v>118</v>
       </c>
@@ -13425,13 +13428,13 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="P19" s="3"/>
       <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>119</v>
       </c>
@@ -13443,7 +13446,7 @@
       <c r="P20" s="3"/>
       <c r="X20" s="27"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>120</v>
       </c>
@@ -13454,7 +13457,7 @@
       <c r="F21" s="26"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>121</v>
       </c>
@@ -13466,7 +13469,7 @@
       <c r="P22" s="3"/>
       <c r="S22" s="154"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -13474,7 +13477,7 @@
       <c r="F23" s="26"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -13482,19 +13485,19 @@
       <c r="F24" s="26"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P27" s="40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>123</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>124</v>
       </c>
@@ -13576,7 +13579,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P30" s="23" t="s">
         <v>89</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P31" s="23" t="s">
         <v>113</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P32" s="23" t="s">
         <v>115</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P33" s="28" t="s">
         <v>116</v>
       </c>
@@ -13736,7 +13739,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N34" s="13" t="s">
         <v>125</v>
       </c>
@@ -13768,7 +13771,7 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="137" t="s">
         <v>126</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="138"/>
       <c r="B36" s="139"/>
       <c r="C36" s="138"/>
@@ -13862,7 +13865,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="140" t="s">
         <v>13</v>
       </c>
@@ -13891,7 +13894,7 @@
       <c r="AA37" s="82"/>
       <c r="AB37" s="82"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="141" t="s">
         <v>110</v>
       </c>
@@ -13934,7 +13937,7 @@
       <c r="AA38" s="82"/>
       <c r="AB38" s="82"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="145" t="s">
         <v>88</v>
       </c>
@@ -13969,7 +13972,7 @@
       <c r="AA39" s="82"/>
       <c r="AB39" s="82"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="145" t="s">
         <v>89</v>
       </c>
@@ -14004,7 +14007,7 @@
       <c r="AA40" s="82"/>
       <c r="AB40" s="82"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="145" t="s">
         <v>113</v>
       </c>
@@ -14049,7 +14052,7 @@
       <c r="AA41" s="82"/>
       <c r="AB41" s="82"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="145" t="s">
         <v>115</v>
       </c>
@@ -14094,7 +14097,7 @@
       <c r="AA42" s="82"/>
       <c r="AB42" s="82"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="147" t="s">
         <v>116</v>
       </c>
@@ -14139,7 +14142,7 @@
       <c r="AA43" s="82"/>
       <c r="AB43" s="82"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="138"/>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
@@ -14166,7 +14169,7 @@
       <c r="AA44" s="82"/>
       <c r="AB44" s="82"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="151" t="s">
         <v>128</v>
       </c>
@@ -14193,7 +14196,7 @@
       <c r="AA45" s="82"/>
       <c r="AB45" s="82"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="141" t="s">
         <v>110</v>
       </c>
@@ -14236,7 +14239,7 @@
       <c r="AA46" s="82"/>
       <c r="AB46" s="82"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="145" t="s">
         <v>88</v>
       </c>
@@ -14269,7 +14272,7 @@
       <c r="AA47" s="82"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="145" t="s">
         <v>89</v>
       </c>
@@ -14302,7 +14305,7 @@
       <c r="AA48" s="82"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="145" t="s">
         <v>113</v>
       </c>
@@ -14345,7 +14348,7 @@
       <c r="AA49" s="82"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="145" t="s">
         <v>115</v>
       </c>
@@ -14388,7 +14391,7 @@
       <c r="AA50" s="82"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="147" t="s">
         <v>116</v>
       </c>
@@ -14431,7 +14434,7 @@
       <c r="AA51" s="82"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O52" s="82"/>
       <c r="P52" s="136"/>
       <c r="Q52" s="136"/>
@@ -14447,7 +14450,7 @@
       <c r="AA52" s="82"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P53" s="51"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
@@ -14458,7 +14461,7 @@
       <c r="W53" s="52"/>
       <c r="X53" s="52"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P54" s="51"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
@@ -14469,7 +14472,7 @@
       <c r="W54" s="52"/>
       <c r="X54" s="52"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P55" s="51"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -14480,7 +14483,7 @@
       <c r="W55" s="52"/>
       <c r="X55" s="52"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P56" s="51"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
@@ -14491,7 +14494,7 @@
       <c r="W56" s="52"/>
       <c r="X56" s="52"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P57" s="51"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
@@ -14502,7 +14505,7 @@
       <c r="W57" s="52"/>
       <c r="X57" s="52"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P58" s="51"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
@@ -14513,7 +14516,7 @@
       <c r="W58" s="52"/>
       <c r="X58" s="52"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P59" s="51"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -14524,7 +14527,7 @@
       <c r="W59" s="52"/>
       <c r="X59" s="52"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P60" s="51"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
@@ -14552,15 +14555,15 @@
   <dimension ref="A3:AG25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+      <selection activeCell="G8" sqref="A7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -14691,7 +14694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -14820,7 +14823,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -14921,7 +14924,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -15054,7 +15057,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -15183,7 +15186,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -15312,7 +15315,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>291363.21999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -15578,23 +15581,23 @@
         <v>419278.77999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="96"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -15626,7 +15629,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -15661,7 +15664,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -15696,12 +15699,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>94</v>
       </c>
@@ -15720,18 +15723,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -15829,7 +15832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16025,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>
@@ -16123,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -16221,7 +16224,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -16236,119 +16239,91 @@
         <v>2653</v>
       </c>
       <c r="E6" s="15">
-        <f>-'Retirements from BCRbQ'!E5</f>
-        <v>9501.7092557230353</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
-        <f>-'Retirements from BCRbQ'!F5</f>
-        <v>9501.7092557230208</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f>-'Retirements from BCRbQ'!G5</f>
-        <v>9501.7092557230353</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
-        <f>-'Retirements from BCRbQ'!H5</f>
-        <v>156.76383999999962</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
-        <f>-'Retirements from BCRbQ'!I5</f>
-        <v>156.76383999999962</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f>-'Retirements from BCRbQ'!J5</f>
-        <v>156.76383999999962</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
-        <f>-'Retirements from BCRbQ'!K5</f>
-        <v>156.76383999997051</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
-        <f>-'Retirements from BCRbQ'!L5</f>
-        <v>156.76384000002872</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f>-'Retirements from BCRbQ'!M5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
-        <f>-'Retirements from BCRbQ'!N5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15">
-        <f>-'Retirements from BCRbQ'!O5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
-        <f>-'Retirements from BCRbQ'!P5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
-        <f>-'Retirements from BCRbQ'!Q5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
-        <f>-'Retirements from BCRbQ'!R5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15">
-        <f>-'Retirements from BCRbQ'!S5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
-        <f>-'Retirements from BCRbQ'!T5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
-        <f>-'Retirements from BCRbQ'!U5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
-        <f>-'Retirements from BCRbQ'!V5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
-        <f>-'Retirements from BCRbQ'!W5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
-        <f>-'Retirements from BCRbQ'!X5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
-        <f>-'Retirements from BCRbQ'!Y5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
-        <f>-'Retirements from BCRbQ'!Z5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
-        <f>-'Retirements from BCRbQ'!AA5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="15">
-        <f>-'Retirements from BCRbQ'!AB5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="15">
-        <f>-'Retirements from BCRbQ'!AC5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
-        <f>-'Retirements from BCRbQ'!AD5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="15">
-        <f>-'Retirements from BCRbQ'!AE5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="15">
-        <f>-'Retirements from BCRbQ'!AF5</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -16449,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
@@ -16462,11 +16437,10 @@
         <v>8749.5599999999977</v>
       </c>
       <c r="D8" s="5">
-        <f>-'Retirements from BCRbQ'!D19</f>
-        <v>12230.48000000001</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -16550,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -16676,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -16774,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -16872,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -16970,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -17068,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -17166,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -17275,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -17373,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -17471,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -17572,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>137</v>
       </c>
@@ -17670,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
@@ -17768,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>139</v>
       </c>
@@ -17866,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -17964,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
@@ -18062,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="155" t="s">
         <v>142</v>
       </c>
@@ -18160,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="155" t="s">
         <v>143</v>
       </c>
@@ -18258,22 +18232,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB44D52-9EE6-4485-9CE8-8D215B5B1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80099E8E-6330-4472-9FC0-D99B10708E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58170" yWindow="570" windowWidth="22230" windowHeight="16665" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="3710" yWindow="260" windowWidth="13490" windowHeight="11110" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -15726,7 +15726,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16340,7 +16340,7 @@
         <v>14122</v>
       </c>
       <c r="E7" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -16440,7 +16440,7 @@
         <v>15000</v>
       </c>
       <c r="E8" s="17">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -18261,6 +18261,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -18483,27 +18503,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18520,23 +18539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80099E8E-6330-4472-9FC0-D99B10708E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D846F7FA-80A0-43C9-85AA-056270405EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3710" yWindow="260" windowWidth="13490" windowHeight="11110" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="44145" yWindow="3405" windowWidth="21600" windowHeight="12525" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -16440,7 +16440,7 @@
         <v>15000</v>
       </c>
       <c r="E8" s="17">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -18261,6 +18261,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -18269,15 +18278,6 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18504,20 +18504,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D846F7FA-80A0-43C9-85AA-056270405EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EBE8A7-D943-4D6C-BA06-B3D89B05A8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44145" yWindow="3405" windowWidth="21600" windowHeight="12525" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="58800" yWindow="2070" windowWidth="21600" windowHeight="12525" firstSheet="3" activeTab="6" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -15726,7 +15726,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16443,7 +16443,7 @@
         <v>12000</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -18261,26 +18261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -18503,10 +18483,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18523,20 +18534,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>